--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1031004.781660779</v>
+        <v>1067264.75084414</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>12157779.51246666</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3999173.13461325</v>
+        <v>2820057.50789716</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6648900.332534031</v>
+        <v>7128475.630583234</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
@@ -674,7 +676,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>37.75177100374263</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>37.50378019478174</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +819,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>51.58543740429434</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>123.0673923170406</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -908,13 +910,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>251.0518011222637</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>247.3636342985923</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>48.643144191007</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>200.1026866177083</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1291,22 +1293,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>123.0673923170405</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1379,16 +1381,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>242.9794051018652</v>
+        <v>349.8030022178601</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1531,7 +1533,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>51.58543740429398</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>196.7013130734247</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1610,19 +1612,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>149.4300180754494</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1658,19 +1660,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>49.63136974921979</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>115.1055716303386</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1859,7 +1861,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407046</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -2002,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>57.24387488545717</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855901</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>218.7757544134946</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2476,16 +2478,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100375</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2542,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.6277241346148</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2716,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>51.58543740429417</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>154.8833258811978</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2962,10 +2964,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>11.12043047005107</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>260.444681387164</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3187,25 +3189,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>51.58543740429418</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3247,13 +3249,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>192.6105508316654</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3427,10 +3429,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3439,10 +3441,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>229.0900182902643</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>124.4294523839912</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3673,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>11.12043047005107</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>115.746431451602</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>220.6799548237562</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -3758,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,13 +3799,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3904,7 +3906,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>58.33552926585342</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3955,7 +3957,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>116.5935295804205</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3977,25 +3979,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>209.3371091232764</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>133.7682651318491</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>101.9929615813387</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2198.215255170759</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="C2" t="n">
-        <v>1771.314525184059</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D2" t="n">
-        <v>1348.021904369059</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E2" t="n">
-        <v>922.0449645169166</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F2" t="n">
-        <v>496.9207827063168</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G2" t="n">
-        <v>92.58172029576542</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H2" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J2" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K2" t="n">
-        <v>728.2502693850971</v>
+        <v>80.53897563800069</v>
       </c>
       <c r="L2" t="n">
-        <v>728.2502693850971</v>
+        <v>970.2737227554036</v>
       </c>
       <c r="M2" t="n">
-        <v>1402.051920498411</v>
+        <v>1860.008469872806</v>
       </c>
       <c r="N2" t="n">
-        <v>1402.051920498411</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O2" t="n">
-        <v>2075.853571611725</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P2" t="n">
-        <v>2266.345434084965</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S2" t="n">
-        <v>2618.063619462288</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T2" t="n">
-        <v>2618.063619462288</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="U2" t="n">
-        <v>2618.063619462288</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="V2" t="n">
-        <v>2618.063619462288</v>
+        <v>3016.472881311905</v>
       </c>
       <c r="W2" t="n">
-        <v>2618.063619462288</v>
+        <v>2620.081531612252</v>
       </c>
       <c r="X2" t="n">
-        <v>2618.063619462288</v>
+        <v>2208.361532779999</v>
       </c>
       <c r="Y2" t="n">
-        <v>2618.063619462288</v>
+        <v>2170.478926522644</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I3" t="n">
-        <v>61.8952612336948</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J3" t="n">
-        <v>333.5927505132859</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K3" t="n">
-        <v>333.5927505132859</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L3" t="n">
-        <v>433.5136365409612</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M3" t="n">
-        <v>433.5136365409612</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="N3" t="n">
-        <v>433.5136365409612</v>
+        <v>1851.367251577626</v>
       </c>
       <c r="O3" t="n">
-        <v>1107.315287654275</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P3" t="n">
-        <v>1781.11693876759</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q3" t="n">
-        <v>1781.11693876759</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>766.0969517256838</v>
+        <v>1638.553905277558</v>
       </c>
       <c r="C4" t="n">
-        <v>766.0969517256838</v>
+        <v>1466.581342156474</v>
       </c>
       <c r="D4" t="n">
-        <v>766.0969517256838</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="E4" t="n">
-        <v>766.0969517256838</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="F4" t="n">
-        <v>766.0969517256838</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="G4" t="n">
-        <v>766.0969517256838</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="H4" t="n">
-        <v>641.7864544357437</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="I4" t="n">
-        <v>542.0178861760197</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="J4" t="n">
-        <v>599.5092144001777</v>
+        <v>1471.966167952051</v>
       </c>
       <c r="K4" t="n">
-        <v>826.0368156060149</v>
+        <v>1698.493769157889</v>
       </c>
       <c r="L4" t="n">
-        <v>1180.726136900436</v>
+        <v>2053.183090452309</v>
       </c>
       <c r="M4" t="n">
-        <v>1571.911931870686</v>
+        <v>2444.36888542256</v>
       </c>
       <c r="N4" t="n">
-        <v>1949.403442746722</v>
+        <v>2821.860396298596</v>
       </c>
       <c r="O4" t="n">
-        <v>2304.831571426485</v>
+        <v>3177.288524978359</v>
       </c>
       <c r="P4" t="n">
-        <v>2595.430783348386</v>
+        <v>3467.88773690026</v>
       </c>
       <c r="Q4" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R4" t="n">
-        <v>2675.392300276321</v>
+        <v>3547.849253828195</v>
       </c>
       <c r="S4" t="n">
-        <v>2505.257252795456</v>
+        <v>3377.71420634733</v>
       </c>
       <c r="T4" t="n">
-        <v>2261.917905021356</v>
+        <v>3134.37485857323</v>
       </c>
       <c r="U4" t="n">
-        <v>1981.73345652166</v>
+        <v>2854.190410073534</v>
       </c>
       <c r="V4" t="n">
-        <v>1700.021989129689</v>
+        <v>2572.478942681563</v>
       </c>
       <c r="W4" t="n">
-        <v>1425.169585302202</v>
+        <v>2297.626538854076</v>
       </c>
       <c r="X4" t="n">
-        <v>1182.605688748007</v>
+        <v>2055.062642299881</v>
       </c>
       <c r="Y4" t="n">
-        <v>956.2629204377495</v>
+        <v>1828.719873989623</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2044.22763989403</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.32690990733</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D5" t="n">
-        <v>1194.03428909233</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E5" t="n">
-        <v>768.057349240188</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F5" t="n">
-        <v>342.9331674295883</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9331674295883</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H5" t="n">
-        <v>89.34548952831176</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K5" t="n">
-        <v>728.2502693850971</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L5" t="n">
-        <v>1402.051920498411</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="M5" t="n">
-        <v>1402.051920498411</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="N5" t="n">
-        <v>2048.629262475834</v>
+        <v>2566.875559553125</v>
       </c>
       <c r="O5" t="n">
-        <v>2048.629262475834</v>
+        <v>3412.020209703937</v>
       </c>
       <c r="P5" t="n">
-        <v>2722.430913589148</v>
+        <v>3412.020209703937</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U5" t="n">
-        <v>2464.07600418556</v>
+        <v>3345.025610273757</v>
       </c>
       <c r="V5" t="n">
-        <v>2464.07600418556</v>
+        <v>2987.536195400006</v>
       </c>
       <c r="W5" t="n">
-        <v>2464.07600418556</v>
+        <v>2987.536195400006</v>
       </c>
       <c r="X5" t="n">
-        <v>2464.07600418556</v>
+        <v>2575.816196567753</v>
       </c>
       <c r="Y5" t="n">
-        <v>2464.07600418556</v>
+        <v>2170.478926522644</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I6" t="n">
-        <v>61.8952612336948</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J6" t="n">
-        <v>61.8952612336948</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K6" t="n">
-        <v>652.3801878020344</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L6" t="n">
-        <v>1107.315287654275</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M6" t="n">
-        <v>1107.315287654275</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="N6" t="n">
-        <v>1107.315287654275</v>
+        <v>1851.367251577626</v>
       </c>
       <c r="O6" t="n">
-        <v>1781.11693876759</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P6" t="n">
-        <v>1781.11693876759</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q6" t="n">
-        <v>1781.11693876759</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1137.62974079602</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C7" t="n">
-        <v>965.6571776749358</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D7" t="n">
-        <v>802.3404048017065</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E7" t="n">
-        <v>636.1321989545601</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F7" t="n">
-        <v>464.2704247291205</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G7" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H7" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R7" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S7" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T7" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U7" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="V7" t="n">
-        <v>2071.554778200025</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W7" t="n">
-        <v>1796.702374372538</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X7" t="n">
-        <v>1554.138477818344</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y7" t="n">
-        <v>1327.795709508086</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>777.4411786083479</v>
+        <v>1857.223590145616</v>
       </c>
       <c r="C8" t="n">
-        <v>777.4411786083479</v>
+        <v>1430.322860158916</v>
       </c>
       <c r="D8" t="n">
-        <v>777.4411786083479</v>
+        <v>1007.030239343917</v>
       </c>
       <c r="E8" t="n">
-        <v>777.4411786083479</v>
+        <v>581.0532994917743</v>
       </c>
       <c r="F8" t="n">
-        <v>352.3169967977481</v>
+        <v>155.9291176811745</v>
       </c>
       <c r="G8" t="n">
-        <v>352.3169967977481</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="H8" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J8" t="n">
-        <v>417.0520770886785</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K8" t="n">
-        <v>417.0520770886785</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L8" t="n">
-        <v>417.0520770886785</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="M8" t="n">
-        <v>1090.853728201993</v>
+        <v>1851.367251577626</v>
       </c>
       <c r="N8" t="n">
-        <v>1090.853728201993</v>
+        <v>2741.101998695029</v>
       </c>
       <c r="O8" t="n">
-        <v>1474.987448089748</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="P8" t="n">
-        <v>2148.789099203062</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="Q8" t="n">
-        <v>2604.874578707245</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S8" t="n">
-        <v>2618.063619462288</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T8" t="n">
-        <v>2397.138048506922</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U8" t="n">
-        <v>2138.783139103334</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="V8" t="n">
-        <v>1781.293724229584</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="W8" t="n">
-        <v>1384.902374529931</v>
+        <v>3094.129223314509</v>
       </c>
       <c r="X8" t="n">
-        <v>1182.778448653457</v>
+        <v>2682.409224482256</v>
       </c>
       <c r="Y8" t="n">
-        <v>777.4411786083479</v>
+        <v>2277.071954437146</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K9" t="n">
-        <v>54.44861827178296</v>
+        <v>662.38268391116</v>
       </c>
       <c r="L9" t="n">
-        <v>54.44861827178296</v>
+        <v>662.38268391116</v>
       </c>
       <c r="M9" t="n">
-        <v>728.2502693850971</v>
+        <v>662.38268391116</v>
       </c>
       <c r="N9" t="n">
-        <v>1316.97146190481</v>
+        <v>662.38268391116</v>
       </c>
       <c r="O9" t="n">
-        <v>1316.97146190481</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P9" t="n">
-        <v>1316.97146190481</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q9" t="n">
-        <v>1781.11693876759</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>278.5276838214469</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C10" t="n">
-        <v>154.217186531507</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D10" t="n">
-        <v>154.217186531507</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E10" t="n">
-        <v>154.217186531507</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F10" t="n">
-        <v>154.217186531507</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G10" t="n">
-        <v>154.217186531507</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H10" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R10" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S10" t="n">
-        <v>2017.687984891219</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T10" t="n">
-        <v>1774.348637117119</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U10" t="n">
-        <v>1494.164188617424</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="V10" t="n">
-        <v>1212.452721225452</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W10" t="n">
-        <v>937.6003173979655</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X10" t="n">
-        <v>695.0364208437705</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y10" t="n">
-        <v>468.6936525335126</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1485.525280420256</v>
+        <v>1703.235974868889</v>
       </c>
       <c r="C11" t="n">
-        <v>1058.624550433556</v>
+        <v>1276.335244882189</v>
       </c>
       <c r="D11" t="n">
-        <v>1058.624550433556</v>
+        <v>1276.335244882189</v>
       </c>
       <c r="E11" t="n">
-        <v>632.6476105814135</v>
+        <v>850.3583050300466</v>
       </c>
       <c r="F11" t="n">
-        <v>632.6476105814135</v>
+        <v>425.2341232194468</v>
       </c>
       <c r="G11" t="n">
-        <v>387.2138680542769</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H11" t="n">
-        <v>89.34548952831176</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L11" t="n">
-        <v>728.2502693850971</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="M11" t="n">
-        <v>1402.051920498411</v>
+        <v>1851.367251577626</v>
       </c>
       <c r="N11" t="n">
-        <v>2075.853571611725</v>
+        <v>2741.101998695029</v>
       </c>
       <c r="O11" t="n">
-        <v>2604.874578707245</v>
+        <v>3586.246648845841</v>
       </c>
       <c r="P11" t="n">
-        <v>2604.874578707245</v>
+        <v>3586.246648845841</v>
       </c>
       <c r="Q11" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U11" t="n">
-        <v>2722.430913589148</v>
+        <v>3336.532957737434</v>
       </c>
       <c r="V11" t="n">
-        <v>2722.430913589148</v>
+        <v>3336.532957737434</v>
       </c>
       <c r="W11" t="n">
-        <v>2722.430913589148</v>
+        <v>2940.141608037781</v>
       </c>
       <c r="X11" t="n">
-        <v>2310.710914756895</v>
+        <v>2528.421609205529</v>
       </c>
       <c r="Y11" t="n">
-        <v>1905.373644711786</v>
+        <v>2123.084339160419</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L12" t="n">
-        <v>515.5329466256644</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M12" t="n">
-        <v>1189.334597738979</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.136248852293</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>370.2174498847126</v>
+        <v>295.9768228924842</v>
       </c>
       <c r="C13" t="n">
-        <v>198.2448867636286</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="D13" t="n">
-        <v>198.2448867636286</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="E13" t="n">
-        <v>198.2448867636286</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="F13" t="n">
-        <v>198.2448867636286</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G13" t="n">
-        <v>198.2448867636286</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H13" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R13" t="n">
-        <v>2234.861645684911</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S13" t="n">
-        <v>2064.726598204046</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.038403180385</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U13" t="n">
-        <v>1585.853954680689</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V13" t="n">
-        <v>1304.142487288718</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W13" t="n">
-        <v>1029.290083461231</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X13" t="n">
-        <v>786.7261869070362</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y13" t="n">
-        <v>560.3834185967783</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>965.0540102384005</v>
+        <v>2212.428163474342</v>
       </c>
       <c r="C14" t="n">
-        <v>538.1532802517006</v>
+        <v>1785.527433487643</v>
       </c>
       <c r="D14" t="n">
-        <v>538.1532802517006</v>
+        <v>1362.234812672643</v>
       </c>
       <c r="E14" t="n">
-        <v>538.1532802517006</v>
+        <v>936.2578728205004</v>
       </c>
       <c r="F14" t="n">
-        <v>538.1532802517006</v>
+        <v>511.1336910099006</v>
       </c>
       <c r="G14" t="n">
-        <v>387.2138680542769</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="H14" t="n">
-        <v>89.34548952831176</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K14" t="n">
-        <v>54.44861827178296</v>
+        <v>80.53897563800069</v>
       </c>
       <c r="L14" t="n">
-        <v>728.2502693850971</v>
+        <v>970.2737227554036</v>
       </c>
       <c r="M14" t="n">
-        <v>1402.051920498411</v>
+        <v>1860.008469872806</v>
       </c>
       <c r="N14" t="n">
-        <v>2075.853571611725</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O14" t="n">
-        <v>2148.789099203062</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P14" t="n">
-        <v>2148.789099203062</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q14" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S14" t="n">
-        <v>2618.063619462288</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T14" t="n">
-        <v>2397.138048506922</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U14" t="n">
-        <v>2138.783139103334</v>
+        <v>3440.387876297778</v>
       </c>
       <c r="V14" t="n">
-        <v>1781.293724229584</v>
+        <v>3440.387876297778</v>
       </c>
       <c r="W14" t="n">
-        <v>1384.902374529931</v>
+        <v>3043.996526598125</v>
       </c>
       <c r="X14" t="n">
-        <v>1384.902374529931</v>
+        <v>2632.276527765873</v>
       </c>
       <c r="Y14" t="n">
-        <v>1384.902374529931</v>
+        <v>2632.276527765873</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L15" t="n">
-        <v>728.2502693850971</v>
+        <v>101.1158936885245</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.315287654275</v>
+        <v>990.8506408059274</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.315287654275</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O15" t="n">
-        <v>1781.11693876759</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P15" t="n">
-        <v>1781.11693876759</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q15" t="n">
-        <v>1781.11693876759</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1137.62974079602</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C16" t="n">
-        <v>965.6571776749358</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D16" t="n">
-        <v>802.3404048017065</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E16" t="n">
-        <v>636.1321989545601</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R16" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S16" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T16" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U16" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="V16" t="n">
-        <v>2071.554778200025</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W16" t="n">
-        <v>1796.702374372538</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X16" t="n">
-        <v>1554.138477818344</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y16" t="n">
-        <v>1327.795709508086</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988729</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883215</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5513,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T17" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="18">
@@ -5583,7 +5585,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
@@ -5601,10 +5603,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878698</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>446.1370507523521</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C19" t="n">
-        <v>274.1644876312681</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="D19" t="n">
-        <v>274.1644876312681</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E19" t="n">
-        <v>274.1644876312681</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5671,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1941.958004048024</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1661.773555548329</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1380.062088156358</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1105.20968432887</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>862.6457877746757</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>636.3030194644177</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,49 +5740,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5820,7 +5822,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H21" t="n">
         <v>102.3027134058285</v>
@@ -5838,7 +5840,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N21" t="n">
         <v>1910.990343986338</v>
@@ -5887,31 +5889,31 @@
         <v>1185.483835930065</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>850.194499935752</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886055</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5932,19 +5934,19 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="U22" t="n">
-        <v>2282.715740818957</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V22" t="n">
-        <v>2119.408873334071</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W22" t="n">
         <v>1844.556469506584</v>
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -6005,19 +6007,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C24" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259876</v>
       </c>
       <c r="D24" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775161</v>
       </c>
       <c r="E24" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048099</v>
       </c>
       <c r="F24" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731003</v>
       </c>
       <c r="G24" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948607</v>
       </c>
       <c r="H24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710917</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710917</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710917</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710917</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710917</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>4025.820723818556</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S24" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.81142285268</v>
       </c>
       <c r="T24" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150358</v>
       </c>
       <c r="U24" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069995</v>
       </c>
       <c r="V24" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209262</v>
       </c>
       <c r="W24" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042479</v>
       </c>
       <c r="X24" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809142</v>
       </c>
       <c r="Y24" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162434</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>512.1245198631661</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>512.1245198631661</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D25" t="n">
-        <v>512.1245198631661</v>
+        <v>850.194499935752</v>
       </c>
       <c r="E25" t="n">
-        <v>512.1245198631661</v>
+        <v>683.9862940886055</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>1992.33777973203</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U25" t="n">
-        <v>1712.153331232334</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V25" t="n">
-        <v>1430.441863840363</v>
+        <v>2119.40887333407</v>
       </c>
       <c r="W25" t="n">
-        <v>1155.589460012876</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X25" t="n">
-        <v>913.0255634586812</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y25" t="n">
-        <v>702.2904885752318</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K26" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6303,28 +6305,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>964.4851292537592</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>326.3817789554925</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>154.4092158344085</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D28" t="n">
-        <v>102.3027134058285</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C30" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D30" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E30" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F30" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>3306.448039710919</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M30" t="n">
-        <v>4025.820723818557</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N30" t="n">
-        <v>5115.135670291427</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
-        <v>5115.135670291427</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S30" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T30" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U30" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V30" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W30" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X30" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y30" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3619.314716995755</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C31" t="n">
-        <v>3447.342153874671</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D31" t="n">
-        <v>3284.025381001441</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E31" t="n">
-        <v>3117.817175154295</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F31" t="n">
-        <v>2945.955400928855</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U31" t="n">
-        <v>4834.951221791732</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V31" t="n">
-        <v>4553.23975439976</v>
+        <v>2019.640305074347</v>
       </c>
       <c r="W31" t="n">
-        <v>4278.387350572273</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X31" t="n">
-        <v>4035.823454018078</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y31" t="n">
-        <v>3809.48068570782</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K32" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6786,7 +6788,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>850.1944999357522</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C34" t="n">
-        <v>850.1944999357522</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1759.191944545161</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1477.48047715319</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1282.924365202013</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1040.360468647818</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>1040.360468647818</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7014,28 +7016,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3444.81394993059</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>3272.841386809506</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D37" t="n">
-        <v>3272.841386809506</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E37" t="n">
-        <v>3272.841386809506</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F37" t="n">
-        <v>3100.979612584067</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G37" t="n">
-        <v>2934.722642878299</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>4654.622661723635</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>4374.43821322394</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V37" t="n">
-        <v>4092.726745831969</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="W37" t="n">
-        <v>3861.322686952914</v>
+        <v>1727.678888491774</v>
       </c>
       <c r="X37" t="n">
-        <v>3861.322686952914</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>3634.979918642656</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3950.770911629314</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629314</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787242</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7251,28 +7253,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>775.6620294727279</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>603.6894663516439</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D40" t="n">
-        <v>440.3726934784146</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7360,22 +7362,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>2271.4829827684</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>1991.298534268705</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V40" t="n">
-        <v>1709.587066876733</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.734663049246</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X40" t="n">
-        <v>1192.170766495052</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y40" t="n">
-        <v>965.8279981847936</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>979.5651044848208</v>
+        <v>1774.334459486316</v>
       </c>
       <c r="C41" t="n">
-        <v>979.5651044848208</v>
+        <v>1657.418872161465</v>
       </c>
       <c r="D41" t="n">
-        <v>979.5651044848208</v>
+        <v>1234.126251346466</v>
       </c>
       <c r="E41" t="n">
-        <v>979.5651044848208</v>
+        <v>1234.126251346466</v>
       </c>
       <c r="F41" t="n">
-        <v>756.6560592082994</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G41" t="n">
-        <v>352.3169967977481</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282046</v>
       </c>
       <c r="J41" t="n">
-        <v>417.0520770886785</v>
+        <v>71.89775734282046</v>
       </c>
       <c r="K41" t="n">
-        <v>417.0520770886785</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L41" t="n">
-        <v>417.0520770886785</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="M41" t="n">
-        <v>1090.853728201993</v>
+        <v>1677.140812435723</v>
       </c>
       <c r="N41" t="n">
-        <v>1257.271276480617</v>
+        <v>2430.523108478912</v>
       </c>
       <c r="O41" t="n">
-        <v>1931.072927593931</v>
+        <v>2430.523108478912</v>
       </c>
       <c r="P41" t="n">
-        <v>2604.874578707245</v>
+        <v>3138.802387636839</v>
       </c>
       <c r="Q41" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141023</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141023</v>
       </c>
       <c r="S41" t="n">
-        <v>2618.063619462288</v>
+        <v>3490.520573014163</v>
       </c>
       <c r="T41" t="n">
-        <v>2397.138048506922</v>
+        <v>3269.595002058796</v>
       </c>
       <c r="U41" t="n">
-        <v>2138.783139103334</v>
+        <v>3011.240092655208</v>
       </c>
       <c r="V41" t="n">
-        <v>1781.293724229584</v>
+        <v>3011.240092655208</v>
       </c>
       <c r="W41" t="n">
-        <v>1384.902374529931</v>
+        <v>3011.240092655208</v>
       </c>
       <c r="X41" t="n">
-        <v>1384.902374529931</v>
+        <v>2599.520093822955</v>
       </c>
       <c r="Y41" t="n">
-        <v>979.5651044848208</v>
+        <v>2194.182823777846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282046</v>
       </c>
       <c r="I42" t="n">
-        <v>61.8952612336948</v>
+        <v>71.89775734282046</v>
       </c>
       <c r="J42" t="n">
-        <v>61.8952612336948</v>
+        <v>71.89775734282046</v>
       </c>
       <c r="K42" t="n">
-        <v>61.8952612336948</v>
+        <v>71.89775734282046</v>
       </c>
       <c r="L42" t="n">
-        <v>61.8952612336948</v>
+        <v>71.89775734282046</v>
       </c>
       <c r="M42" t="n">
-        <v>735.6969123470089</v>
+        <v>908.8313307212239</v>
       </c>
       <c r="N42" t="n">
-        <v>1409.498563460323</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="O42" t="n">
-        <v>1409.498563460323</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="P42" t="n">
-        <v>1781.11693876759</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="Q42" t="n">
-        <v>1781.11693876759</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>489.5065225258203</v>
+        <v>466.1118703733493</v>
       </c>
       <c r="C43" t="n">
-        <v>317.5339594047363</v>
+        <v>294.1393072522653</v>
       </c>
       <c r="D43" t="n">
-        <v>154.217186531507</v>
+        <v>130.822534379036</v>
       </c>
       <c r="E43" t="n">
-        <v>154.217186531507</v>
+        <v>71.89775734282046</v>
       </c>
       <c r="F43" t="n">
-        <v>154.217186531507</v>
+        <v>71.89775734282046</v>
       </c>
       <c r="G43" t="n">
-        <v>154.217186531507</v>
+        <v>71.89775734282046</v>
       </c>
       <c r="H43" t="n">
-        <v>154.217186531507</v>
+        <v>71.89775734282046</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282046</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S43" t="n">
-        <v>2064.726598204046</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="T43" t="n">
-        <v>1821.387250429946</v>
+        <v>1961.932823669022</v>
       </c>
       <c r="U43" t="n">
-        <v>1541.20280193025</v>
+        <v>1681.748375169326</v>
       </c>
       <c r="V43" t="n">
-        <v>1423.431559929826</v>
+        <v>1400.036907777355</v>
       </c>
       <c r="W43" t="n">
-        <v>1148.579156102339</v>
+        <v>1125.184503949868</v>
       </c>
       <c r="X43" t="n">
-        <v>906.0152595481438</v>
+        <v>882.6206073956729</v>
       </c>
       <c r="Y43" t="n">
-        <v>679.6724912378859</v>
+        <v>656.2778390854149</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1755.743090736225</v>
+        <v>1020.453694912913</v>
       </c>
       <c r="C44" t="n">
-        <v>1328.842360749525</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="D44" t="n">
-        <v>905.5497399345252</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="E44" t="n">
-        <v>479.5728000823827</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="F44" t="n">
-        <v>54.44861827178296</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G44" t="n">
-        <v>54.44861827178296</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282046</v>
       </c>
       <c r="J44" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282046</v>
       </c>
       <c r="K44" t="n">
-        <v>54.44861827178296</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L44" t="n">
-        <v>728.2502693850971</v>
+        <v>1034.172855832977</v>
       </c>
       <c r="M44" t="n">
-        <v>1402.051920498411</v>
+        <v>1923.90760295038</v>
       </c>
       <c r="N44" t="n">
-        <v>2048.629262475834</v>
+        <v>1923.90760295038</v>
       </c>
       <c r="O44" t="n">
-        <v>2722.430913589148</v>
+        <v>2769.052253101192</v>
       </c>
       <c r="P44" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.33153225912</v>
       </c>
       <c r="Q44" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.33153225912</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141023</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014163</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.430913589148</v>
+        <v>3269.595002058796</v>
       </c>
       <c r="U44" t="n">
-        <v>2722.430913589148</v>
+        <v>3011.240092655208</v>
       </c>
       <c r="V44" t="n">
-        <v>2722.430913589148</v>
+        <v>2653.750677781458</v>
       </c>
       <c r="W44" t="n">
-        <v>2722.430913589148</v>
+        <v>2257.359328081805</v>
       </c>
       <c r="X44" t="n">
-        <v>2310.710914756895</v>
+        <v>1845.639329249552</v>
       </c>
       <c r="Y44" t="n">
-        <v>2175.591455027755</v>
+        <v>1440.302059204443</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1480.866774040094</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C45" t="n">
-        <v>1363.360870557599</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D45" t="n">
-        <v>1259.520912072884</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E45" t="n">
-        <v>1154.818978345821</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F45" t="n">
-        <v>1061.173148028725</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G45" t="n">
-        <v>967.1193762463289</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H45" t="n">
-        <v>913.7432830086385</v>
+        <v>71.89775734282046</v>
       </c>
       <c r="I45" t="n">
-        <v>913.7432830086385</v>
+        <v>71.89775734282046</v>
       </c>
       <c r="J45" t="n">
-        <v>913.7432830086385</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="K45" t="n">
-        <v>913.7432830086385</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="L45" t="n">
-        <v>913.7432830086385</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="M45" t="n">
-        <v>1587.544934121953</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="N45" t="n">
-        <v>2261.346585235267</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="O45" t="n">
-        <v>2722.430913589148</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="P45" t="n">
-        <v>2722.430913589148</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="Q45" t="n">
-        <v>2722.430913589148</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R45" t="n">
-        <v>2722.430913589148</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S45" t="n">
-        <v>2641.106666150403</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T45" t="n">
-        <v>2499.226730448081</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U45" t="n">
-        <v>2314.458534367718</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V45" t="n">
-        <v>2109.485395506984</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W45" t="n">
-        <v>1912.964018340201</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X45" t="n">
-        <v>1749.486672106864</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y45" t="n">
-        <v>1609.793783460156</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1137.62974079602</v>
+        <v>513.1504836861761</v>
       </c>
       <c r="C46" t="n">
-        <v>965.6571776749358</v>
+        <v>341.1779205650921</v>
       </c>
       <c r="D46" t="n">
-        <v>802.3404048017065</v>
+        <v>341.1779205650921</v>
       </c>
       <c r="E46" t="n">
-        <v>636.1321989545601</v>
+        <v>341.1779205650921</v>
       </c>
       <c r="F46" t="n">
-        <v>464.2704247291205</v>
+        <v>238.1547270485883</v>
       </c>
       <c r="G46" t="n">
-        <v>298.0134550233526</v>
+        <v>71.89775734282046</v>
       </c>
       <c r="H46" t="n">
-        <v>154.217186531507</v>
+        <v>71.89775734282046</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282046</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R46" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S46" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T46" t="n">
-        <v>2234.861645684911</v>
+        <v>2008.971436981848</v>
       </c>
       <c r="U46" t="n">
-        <v>2234.861645684911</v>
+        <v>1728.786988482153</v>
       </c>
       <c r="V46" t="n">
-        <v>2071.554778200025</v>
+        <v>1447.075521090182</v>
       </c>
       <c r="W46" t="n">
-        <v>1796.702374372538</v>
+        <v>1172.223117262695</v>
       </c>
       <c r="X46" t="n">
-        <v>1554.138477818344</v>
+        <v>929.6592207084997</v>
       </c>
       <c r="Y46" t="n">
-        <v>1327.795709508086</v>
+        <v>703.3164523982417</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7981,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>716.3723291920963</v>
+        <v>44.49310412327424</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M2" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O2" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P2" t="n">
-        <v>229.9913845104732</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>123.4452746209723</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O3" t="n">
-        <v>703.7796181195092</v>
+        <v>52.685158758287</v>
       </c>
       <c r="P3" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,25 +8218,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L5" t="n">
-        <v>718.9197708299099</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>690.388049074267</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P5" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>220.8394800966024</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8289,25 +8291,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0454906053821</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O6" t="n">
-        <v>703.7796181195092</v>
+        <v>52.685158758287</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
@@ -8316,7 +8318,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M8" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O8" t="n">
-        <v>425.4048178285041</v>
+        <v>781.0571548753067</v>
       </c>
       <c r="P8" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8532,28 +8534,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>616.0108994455751</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>530.2476341400729</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8693,25 +8695,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>718.9197708299099</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M11" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N11" t="n">
-        <v>717.8873512317331</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O11" t="n">
-        <v>571.7556129878624</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>44.85317793306304</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,16 +8774,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>488.256832526231</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>703.704508909615</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N12" t="n">
-        <v>701.9507566108286</v>
+        <v>51.11232664953685</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8927,28 +8929,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>44.49310412327424</v>
       </c>
       <c r="L14" t="n">
-        <v>718.9197708299099</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M14" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N14" t="n">
-        <v>717.8873512317331</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O14" t="n">
-        <v>111.0632094482834</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,16 +9011,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>703.1228151115166</v>
+        <v>52.02835575029422</v>
       </c>
       <c r="M15" t="n">
-        <v>405.9907383599828</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O15" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9027,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9176,16 +9178,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>891.0724241548241</v>
+        <v>866.4310157363752</v>
       </c>
       <c r="P17" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,13 +9251,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>749.8109645784242</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9416,7 +9418,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>218.8019602116015</v>
+        <v>585.0680802286654</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
@@ -9486,10 +9488,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9653,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9875,10 +9877,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9890,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036175</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9951,31 +9953,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>426.1551116948253</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10118,22 +10120,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,19 +10196,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>227.574314522856</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10352,7 +10354,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
         <v>37.43126289943181</v>
@@ -10370,7 +10372,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934506</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,10 +10436,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10598,13 +10600,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>611.6066190166146</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10662,31 +10664,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10832,16 +10834,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>882.1738474735944</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10899,22 +10901,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>896.3899752251272</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -10923,7 +10925,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846874</v>
       </c>
       <c r="N41" t="n">
-        <v>205.378156449218</v>
+        <v>798.2718410598894</v>
       </c>
       <c r="O41" t="n">
-        <v>717.9986877533111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11145,16 +11147,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>703.704508909615</v>
+        <v>868.4842283693013</v>
       </c>
       <c r="N42" t="n">
-        <v>701.9507566108286</v>
+        <v>920.0649949987973</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>397.1429374747948</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11297,28 +11299,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>718.9197708299099</v>
+        <v>287.5714267908627</v>
       </c>
       <c r="M44" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846874</v>
       </c>
       <c r="N44" t="n">
-        <v>690.388049074267</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11375,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>488.9136355342233</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -22547,7 +22549,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22562,7 +22564,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>257.1379237369629</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>363.7801171498768</v>
       </c>
     </row>
     <row r="3">
@@ -22705,10 +22707,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>110.0981677402027</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -22720,10 +22722,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>19.29091348988652</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22784,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22796,13 +22798,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>43.8378936184418</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22838,19 +22840,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>8.40772601095955</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>351.6525275954389</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23072,19 +23074,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>207.5001122262219</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23179,22 +23181,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>47.1854451728326</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23267,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>157.3162666845807</v>
+        <v>50.49266956858577</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,13 +23314,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>110.098167740203</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -23431,7 +23433,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>44.20464122293427</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23498,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>250.8656537109964</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>206.139990560332</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -23710,7 +23712,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>163.7887810877128</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>113.008962604416</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -23899,10 +23901,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>22.13019988286445</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>117.2205539080143</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>117.2205539080138</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.45161649254055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>153.4739695386591</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24892,10 +24894,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>18.44967133088738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>79.49332895754671</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>43.01386149894776</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>115.7088052046617</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,13 +25602,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>229.7855238263079</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>306.8852912352309</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>200.1929851687376</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>106.2105945228216</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -25804,7 +25806,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>162.3008231376309</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25865,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>213.2946135635565</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>267.5156322128095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>68.15019490184643</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,13 +26076,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>462298.8766384991</v>
+        <v>544871.1716848487</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>462298.876638499</v>
+        <v>544871.1716848487</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>462298.8766384991</v>
+        <v>544871.1716848487</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>462298.8766384991</v>
+        <v>544871.1716848488</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>462298.8766384991</v>
+        <v>544871.1716848487</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>688752.5971629209</v>
+        <v>688752.597162921</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>688752.597162921</v>
+        <v>688752.5971629209</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>688752.5971629209</v>
+        <v>688752.597162921</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>688752.597162921</v>
+        <v>688752.5971629209</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>462298.8766384991</v>
+        <v>544871.1716848488</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>462298.876638499</v>
+        <v>544871.1716848488</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207485.7353817734</v>
+        <v>244543.6550785646</v>
       </c>
       <c r="C2" t="n">
-        <v>207485.7353817734</v>
+        <v>244543.6550785646</v>
       </c>
       <c r="D2" t="n">
-        <v>207485.7353817735</v>
+        <v>244543.6550785647</v>
       </c>
       <c r="E2" t="n">
-        <v>207485.7353817734</v>
+        <v>244543.6550785646</v>
       </c>
       <c r="F2" t="n">
-        <v>207485.7353817734</v>
+        <v>244543.6550785646</v>
       </c>
       <c r="G2" t="n">
         <v>309116.7217255959</v>
       </c>
       <c r="H2" t="n">
+        <v>309116.7217255959</v>
+      </c>
+      <c r="I2" t="n">
         <v>309116.721725596</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>309116.7217255959</v>
       </c>
-      <c r="J2" t="n">
-        <v>309116.7217255958</v>
-      </c>
       <c r="K2" t="n">
-        <v>309116.721725596</v>
+        <v>309116.7217255959</v>
       </c>
       <c r="L2" t="n">
         <v>309116.721725596</v>
@@ -26347,13 +26349,13 @@
         <v>309116.7217255959</v>
       </c>
       <c r="N2" t="n">
-        <v>309116.7217255959</v>
+        <v>309116.721725596</v>
       </c>
       <c r="O2" t="n">
-        <v>207485.7353817734</v>
+        <v>244543.6550785647</v>
       </c>
       <c r="P2" t="n">
-        <v>207485.7353817733</v>
+        <v>244543.6550785647</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>301182.4016749751</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>104169.2797816196</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>235145.2102775614</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10119.98377357185</v>
+        <v>11941.75496939596</v>
       </c>
       <c r="C4" t="n">
-        <v>10119.98377357185</v>
+        <v>11941.75496939596</v>
       </c>
       <c r="D4" t="n">
-        <v>10119.98377357185</v>
+        <v>11941.75496939596</v>
       </c>
       <c r="E4" t="n">
-        <v>10119.98377357185</v>
+        <v>11941.75496939596</v>
       </c>
       <c r="F4" t="n">
-        <v>10119.98377357185</v>
+        <v>11941.75496939596</v>
       </c>
       <c r="G4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="H4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="I4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="J4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="K4" t="n">
         <v>15116.17365792743</v>
@@ -26454,10 +26456,10 @@
         <v>15116.17365792743</v>
       </c>
       <c r="O4" t="n">
-        <v>10119.98377357185</v>
+        <v>11941.75496939597</v>
       </c>
       <c r="P4" t="n">
-        <v>10119.98377357185</v>
+        <v>11941.75496939597</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054354</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054354</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-105730.1020420375</v>
+        <v>-156850.39714635</v>
       </c>
       <c r="C6" t="n">
-        <v>122357.2017216465</v>
+        <v>144332.0045286251</v>
       </c>
       <c r="D6" t="n">
-        <v>122357.2017216466</v>
+        <v>144332.0045286252</v>
       </c>
       <c r="E6" t="n">
-        <v>155984.8017216465</v>
+        <v>177959.6045286251</v>
       </c>
       <c r="F6" t="n">
-        <v>155984.8017216465</v>
+        <v>177959.6045286251</v>
       </c>
       <c r="G6" t="n">
-        <v>52299.36506905277</v>
+        <v>112081.2060976192</v>
       </c>
       <c r="H6" t="n">
         <v>216250.4858792389</v>
       </c>
       <c r="I6" t="n">
+        <v>216250.4858792389</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-18894.72439832258</v>
+      </c>
+      <c r="K6" t="n">
         <v>216250.4858792388</v>
-      </c>
-      <c r="J6" t="n">
-        <v>38173.55739045893</v>
-      </c>
-      <c r="K6" t="n">
-        <v>216250.4858792389</v>
       </c>
       <c r="L6" t="n">
         <v>216250.4858792389</v>
@@ -26555,13 +26557,13 @@
         <v>216250.4858792388</v>
       </c>
       <c r="N6" t="n">
-        <v>216250.4858792388</v>
+        <v>216250.4858792389</v>
       </c>
       <c r="O6" t="n">
-        <v>155984.8017216465</v>
+        <v>177959.6045286252</v>
       </c>
       <c r="P6" t="n">
-        <v>155984.8017216464</v>
+        <v>177959.6045286252</v>
       </c>
     </row>
   </sheetData>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="J4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852556</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852556</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876009</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>898.7219667852557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876009</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34699,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>680.607728397287</v>
+        <v>8.728503328464901</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M2" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O2" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P2" t="n">
-        <v>192.4160227002419</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>100.9301879067428</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O3" t="n">
-        <v>680.607728397287</v>
+        <v>29.51326903606477</v>
       </c>
       <c r="P3" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L5" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>653.1084262398209</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>184.7148054920043</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35009,25 +35011,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>459.5304038911526</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O6" t="n">
-        <v>680.607728397287</v>
+        <v>29.51326903606477</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35036,7 +35038,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M8" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O8" t="n">
-        <v>388.01385847248</v>
+        <v>743.6661955192825</v>
       </c>
       <c r="P8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35252,28 +35254,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>594.6678712320335</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35413,25 +35415,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M11" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N11" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O11" t="n">
-        <v>534.3646536318383</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>8.728503328465001</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N12" t="n">
-        <v>680.607728397287</v>
+        <v>29.76929843599519</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>8.728503328464901</v>
       </c>
       <c r="L14" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M14" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N14" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O14" t="n">
-        <v>73.67225009225932</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>680.607728397287</v>
+        <v>29.51326903606467</v>
       </c>
       <c r="M15" t="n">
-        <v>382.8939578476548</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35896,16 +35898,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>853.6814647988001</v>
+        <v>829.0400563803511</v>
       </c>
       <c r="P17" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>726.639074856202</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36136,7 +36138,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>181.2265984013702</v>
+        <v>547.492718418434</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36206,10 +36208,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36373,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36595,10 +36597,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36610,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>62.4828257933862</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>404.3842704899966</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36838,22 +36840,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37072,7 +37074,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454859</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37318,13 +37320,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>574.2156596605904</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37552,16 +37554,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>844.8942246391483</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>873.218085502905</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852556</v>
       </c>
       <c r="N41" t="n">
-        <v>168.098533614772</v>
+        <v>760.9922182254434</v>
       </c>
       <c r="O41" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>680.607728397287</v>
+        <v>845.3874478569733</v>
       </c>
       <c r="N42" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852556</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>375.3720962699661</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>680.607728397287</v>
+        <v>249.2593843582398</v>
       </c>
       <c r="M44" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852556</v>
       </c>
       <c r="N44" t="n">
-        <v>653.1084262398209</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>465.7417458120011</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1067264.75084414</v>
+        <v>1065347.033185578</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7128475.630583234</v>
+        <v>7128475.630583233</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
@@ -673,10 +673,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>331.4217860021581</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>37.50378019478174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,13 +822,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>51.58543740429434</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>247.3636342985923</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>209.5098900882832</v>
       </c>
     </row>
     <row r="6">
@@ -1059,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1135,25 +1135,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>48.643144191007</v>
+        <v>328.4446100324261</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399249</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>81.5950811771481</v>
       </c>
       <c r="G11" t="n">
-        <v>349.8030022178601</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1533,13 +1533,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429398</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1615,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>360.7115202531227</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>49.63136974921979</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399249</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1861,7 +1861,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407046</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -2004,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>57.24387488545717</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855901</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
-        <v>218.7757544134946</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>161.6737988100375</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>154.8833258811978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2955,19 +2955,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>260.444681387164</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429418</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3328,7 +3328,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>124.4294523839912</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3742,13 +3742,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>115.746431451602</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3757,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>178.6464323367727</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3903,13 +3903,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>58.33552926585342</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3979,25 +3979,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>209.3371091232764</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>178.6464323367727</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>101.9929615813387</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1750.630562231114</v>
+        <v>2405.830089143488</v>
       </c>
       <c r="C2" t="n">
-        <v>1750.630562231114</v>
+        <v>1978.929359156788</v>
       </c>
       <c r="D2" t="n">
-        <v>1327.337941416114</v>
+        <v>1555.636738341789</v>
       </c>
       <c r="E2" t="n">
-        <v>901.3610015639716</v>
+        <v>1129.659798489646</v>
       </c>
       <c r="F2" t="n">
-        <v>476.2368197533718</v>
+        <v>704.5356166790464</v>
       </c>
       <c r="G2" t="n">
-        <v>71.89775734282044</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H2" t="n">
         <v>71.89775734282044</v>
@@ -4330,25 +4330,25 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J2" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K2" t="n">
-        <v>80.53897563800069</v>
+        <v>434.501216159716</v>
       </c>
       <c r="L2" t="n">
-        <v>970.2737227554036</v>
+        <v>1324.235963277119</v>
       </c>
       <c r="M2" t="n">
-        <v>1860.008469872806</v>
+        <v>1324.235963277119</v>
       </c>
       <c r="N2" t="n">
-        <v>2749.743216990209</v>
+        <v>2213.970710394522</v>
       </c>
       <c r="O2" t="n">
-        <v>3594.887867141022</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P2" t="n">
-        <v>3594.887867141022</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q2" t="n">
         <v>3594.887867141022</v>
@@ -4360,22 +4360,22 @@
         <v>3594.887867141022</v>
       </c>
       <c r="T2" t="n">
-        <v>3373.962296185655</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U2" t="n">
-        <v>3373.962296185655</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V2" t="n">
-        <v>3016.472881311905</v>
+        <v>3237.398452267271</v>
       </c>
       <c r="W2" t="n">
-        <v>2620.081531612252</v>
+        <v>3237.398452267271</v>
       </c>
       <c r="X2" t="n">
-        <v>2208.361532779999</v>
+        <v>2825.678453435018</v>
       </c>
       <c r="Y2" t="n">
-        <v>2170.478926522644</v>
+        <v>2825.678453435018</v>
       </c>
     </row>
     <row r="3">
@@ -4418,19 +4418,19 @@
         <v>71.89775734282044</v>
       </c>
       <c r="M3" t="n">
-        <v>961.6325044602233</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="N3" t="n">
-        <v>1851.367251577626</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="O3" t="n">
-        <v>1880.58538792333</v>
+        <v>618.2228839373497</v>
       </c>
       <c r="P3" t="n">
-        <v>1880.58538792333</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q3" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R3" t="n">
         <v>1880.58538792333</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1638.553905277558</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C4" t="n">
-        <v>1466.581342156474</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D4" t="n">
-        <v>1414.474839727893</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E4" t="n">
-        <v>1414.474839727893</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F4" t="n">
-        <v>1414.474839727893</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G4" t="n">
-        <v>1414.474839727893</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H4" t="n">
-        <v>1414.474839727893</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I4" t="n">
-        <v>1414.474839727893</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J4" t="n">
-        <v>1471.966167952051</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K4" t="n">
-        <v>1698.493769157889</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L4" t="n">
-        <v>2053.183090452309</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M4" t="n">
-        <v>2444.36888542256</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N4" t="n">
-        <v>2821.860396298596</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O4" t="n">
-        <v>3177.288524978359</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P4" t="n">
-        <v>3467.88773690026</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q4" t="n">
-        <v>3594.887867141022</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R4" t="n">
-        <v>3547.849253828195</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S4" t="n">
-        <v>3377.71420634733</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T4" t="n">
-        <v>3134.37485857323</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U4" t="n">
-        <v>2854.190410073534</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V4" t="n">
-        <v>2572.478942681563</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W4" t="n">
-        <v>2297.626538854076</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X4" t="n">
-        <v>2055.062642299881</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y4" t="n">
-        <v>1828.719873989623</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1750.630562231114</v>
+        <v>2212.428163474342</v>
       </c>
       <c r="C5" t="n">
-        <v>1750.630562231114</v>
+        <v>1785.527433487643</v>
       </c>
       <c r="D5" t="n">
-        <v>1327.337941416114</v>
+        <v>1362.234812672643</v>
       </c>
       <c r="E5" t="n">
-        <v>901.3610015639716</v>
+        <v>936.2578728205004</v>
       </c>
       <c r="F5" t="n">
-        <v>476.2368197533718</v>
+        <v>511.1336910099006</v>
       </c>
       <c r="G5" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="H5" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I5" t="n">
         <v>71.89775734282044</v>
       </c>
       <c r="J5" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K5" t="n">
-        <v>787.4060653183195</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L5" t="n">
-        <v>1677.140812435722</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M5" t="n">
-        <v>1677.140812435722</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="N5" t="n">
-        <v>2566.875559553125</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="O5" t="n">
-        <v>3412.020209703937</v>
+        <v>2884.88892140343</v>
       </c>
       <c r="P5" t="n">
-        <v>3412.020209703937</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q5" t="n">
         <v>3594.887867141022</v>
@@ -4594,25 +4594,25 @@
         <v>3594.887867141022</v>
       </c>
       <c r="S5" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T5" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U5" t="n">
-        <v>3345.025610273757</v>
+        <v>3232.165663610574</v>
       </c>
       <c r="V5" t="n">
-        <v>2987.536195400006</v>
+        <v>3232.165663610574</v>
       </c>
       <c r="W5" t="n">
-        <v>2987.536195400006</v>
+        <v>2835.774313910922</v>
       </c>
       <c r="X5" t="n">
-        <v>2575.816196567753</v>
+        <v>2424.054315078669</v>
       </c>
       <c r="Y5" t="n">
-        <v>2170.478926522644</v>
+        <v>2212.428163474342</v>
       </c>
     </row>
     <row r="6">
@@ -4655,16 +4655,16 @@
         <v>71.89775734282044</v>
       </c>
       <c r="M6" t="n">
-        <v>961.6325044602233</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="N6" t="n">
-        <v>1851.367251577626</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="O6" t="n">
-        <v>1880.58538792333</v>
+        <v>961.3790353542921</v>
       </c>
       <c r="P6" t="n">
-        <v>1880.58538792333</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="Q6" t="n">
         <v>1880.58538792333</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1155.078879867057</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C7" t="n">
-        <v>983.1063167459732</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D7" t="n">
-        <v>819.7895438727439</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E7" t="n">
-        <v>653.5813380255975</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F7" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G7" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H7" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I7" t="n">
         <v>71.89775734282044</v>
@@ -4752,25 +4752,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S7" t="n">
-        <v>2252.310784755949</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T7" t="n">
-        <v>2252.310784755949</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U7" t="n">
-        <v>2252.310784755949</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V7" t="n">
-        <v>2089.003917271063</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W7" t="n">
-        <v>1814.151513443576</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X7" t="n">
-        <v>1571.587616889381</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y7" t="n">
-        <v>1345.244848579123</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1857.223590145616</v>
+        <v>1124.820989039771</v>
       </c>
       <c r="C8" t="n">
-        <v>1430.322860158916</v>
+        <v>1124.820989039771</v>
       </c>
       <c r="D8" t="n">
-        <v>1007.030239343917</v>
+        <v>701.5283682247716</v>
       </c>
       <c r="E8" t="n">
-        <v>581.0532994917743</v>
+        <v>701.5283682247716</v>
       </c>
       <c r="F8" t="n">
-        <v>155.9291176811745</v>
+        <v>701.5283682247716</v>
       </c>
       <c r="G8" t="n">
-        <v>106.7946285993492</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H8" t="n">
-        <v>106.7946285993492</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I8" t="n">
         <v>71.89775734282044</v>
       </c>
       <c r="J8" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K8" t="n">
-        <v>71.89775734282044</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L8" t="n">
-        <v>961.6325044602233</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="M8" t="n">
-        <v>1851.367251577626</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="N8" t="n">
-        <v>2741.101998695029</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="O8" t="n">
-        <v>3477.331532259119</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P8" t="n">
-        <v>3477.331532259119</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q8" t="n">
         <v>3477.331532259119</v>
@@ -4831,25 +4831,25 @@
         <v>3594.887867141022</v>
       </c>
       <c r="S8" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T8" t="n">
-        <v>3490.520573014162</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="U8" t="n">
-        <v>3490.520573014162</v>
+        <v>3115.607386782067</v>
       </c>
       <c r="V8" t="n">
-        <v>3490.520573014162</v>
+        <v>2758.117971908317</v>
       </c>
       <c r="W8" t="n">
-        <v>3094.129223314509</v>
+        <v>2361.726622208664</v>
       </c>
       <c r="X8" t="n">
-        <v>2682.409224482256</v>
+        <v>1950.006623376411</v>
       </c>
       <c r="Y8" t="n">
-        <v>2277.071954437146</v>
+        <v>1544.669353331301</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I9" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J9" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K9" t="n">
-        <v>662.38268391116</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L9" t="n">
-        <v>662.38268391116</v>
+        <v>1778.325624235569</v>
       </c>
       <c r="M9" t="n">
-        <v>662.38268391116</v>
+        <v>1778.325624235569</v>
       </c>
       <c r="N9" t="n">
-        <v>662.38268391116</v>
+        <v>1778.325624235569</v>
       </c>
       <c r="O9" t="n">
-        <v>1164.387670884832</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P9" t="n">
         <v>1880.58538792333</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1155.078879867057</v>
+        <v>343.015436205311</v>
       </c>
       <c r="C10" t="n">
-        <v>983.1063167459732</v>
+        <v>171.042873084227</v>
       </c>
       <c r="D10" t="n">
-        <v>819.7895438727439</v>
+        <v>171.042873084227</v>
       </c>
       <c r="E10" t="n">
-        <v>653.5813380255975</v>
+        <v>171.042873084227</v>
       </c>
       <c r="F10" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G10" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H10" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I10" t="n">
         <v>71.89775734282044</v>
@@ -4989,25 +4989,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S10" t="n">
-        <v>2252.310784755949</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T10" t="n">
-        <v>2252.310784755949</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U10" t="n">
-        <v>2252.310784755949</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="V10" t="n">
-        <v>2089.003917271063</v>
+        <v>1276.940473609317</v>
       </c>
       <c r="W10" t="n">
-        <v>1814.151513443576</v>
+        <v>1002.08806978183</v>
       </c>
       <c r="X10" t="n">
-        <v>1571.587616889381</v>
+        <v>759.5241732276346</v>
       </c>
       <c r="Y10" t="n">
-        <v>1345.244848579123</v>
+        <v>533.1814049173767</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1703.235974868889</v>
+        <v>1020.453694912912</v>
       </c>
       <c r="C11" t="n">
-        <v>1276.335244882189</v>
+        <v>593.5529649262119</v>
       </c>
       <c r="D11" t="n">
-        <v>1276.335244882189</v>
+        <v>593.5529649262119</v>
       </c>
       <c r="E11" t="n">
-        <v>850.3583050300466</v>
+        <v>593.5529649262119</v>
       </c>
       <c r="F11" t="n">
-        <v>425.2341232194468</v>
+        <v>511.1336910099006</v>
       </c>
       <c r="G11" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="H11" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I11" t="n">
         <v>71.89775734282044</v>
       </c>
       <c r="J11" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K11" t="n">
-        <v>71.89775734282044</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L11" t="n">
-        <v>961.6325044602233</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.367251577626</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="N11" t="n">
-        <v>2741.101998695029</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="O11" t="n">
-        <v>3586.246648845841</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P11" t="n">
-        <v>3586.246648845841</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q11" t="n">
         <v>3594.887867141022</v>
@@ -5068,25 +5068,25 @@
         <v>3594.887867141022</v>
       </c>
       <c r="S11" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T11" t="n">
-        <v>3594.887867141022</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U11" t="n">
-        <v>3336.532957737434</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V11" t="n">
-        <v>3336.532957737434</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W11" t="n">
-        <v>2940.141608037781</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="X11" t="n">
-        <v>2528.421609205529</v>
+        <v>1845.639329249551</v>
       </c>
       <c r="Y11" t="n">
-        <v>2123.084339160419</v>
+        <v>1440.302059204442</v>
       </c>
     </row>
     <row r="12">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>295.9768228924842</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C13" t="n">
-        <v>124.0042597714002</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D13" t="n">
-        <v>71.89775734282044</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E13" t="n">
-        <v>71.89775734282044</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F13" t="n">
         <v>71.89775734282044</v>
@@ -5223,28 +5223,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R13" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S13" t="n">
-        <v>2035.137123962257</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T13" t="n">
-        <v>1791.797776188157</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U13" t="n">
-        <v>1511.613327688461</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.90186029649</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W13" t="n">
-        <v>955.0494564690027</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X13" t="n">
-        <v>712.4855599148078</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y13" t="n">
-        <v>486.1427916045499</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2212.428163474342</v>
+        <v>2009.438739443835</v>
       </c>
       <c r="C14" t="n">
-        <v>1785.527433487643</v>
+        <v>1582.538009457135</v>
       </c>
       <c r="D14" t="n">
-        <v>1362.234812672643</v>
+        <v>1159.245388642136</v>
       </c>
       <c r="E14" t="n">
-        <v>936.2578728205004</v>
+        <v>1159.245388642136</v>
       </c>
       <c r="F14" t="n">
-        <v>511.1336910099006</v>
+        <v>734.1212068315358</v>
       </c>
       <c r="G14" t="n">
-        <v>106.7946285993492</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H14" t="n">
-        <v>106.7946285993492</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I14" t="n">
         <v>71.89775734282044</v>
       </c>
       <c r="J14" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K14" t="n">
-        <v>80.53897563800069</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L14" t="n">
-        <v>970.2737227554036</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M14" t="n">
-        <v>1860.008469872806</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="N14" t="n">
-        <v>2749.743216990209</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="O14" t="n">
-        <v>3594.887867141022</v>
+        <v>2884.88892140343</v>
       </c>
       <c r="P14" t="n">
-        <v>3594.887867141022</v>
+        <v>3593.168200561358</v>
       </c>
       <c r="Q14" t="n">
         <v>3594.887867141022</v>
@@ -5305,25 +5305,25 @@
         <v>3594.887867141022</v>
       </c>
       <c r="S14" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T14" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U14" t="n">
-        <v>3440.387876297778</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V14" t="n">
-        <v>3440.387876297778</v>
+        <v>3237.398452267271</v>
       </c>
       <c r="W14" t="n">
-        <v>3043.996526598125</v>
+        <v>2841.007102567618</v>
       </c>
       <c r="X14" t="n">
-        <v>2632.276527765873</v>
+        <v>2429.287103735365</v>
       </c>
       <c r="Y14" t="n">
-        <v>2632.276527765873</v>
+        <v>2429.287103735365</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I15" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J15" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="K15" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="L15" t="n">
-        <v>101.1158936885245</v>
+        <v>916.1432083876384</v>
       </c>
       <c r="M15" t="n">
-        <v>990.8506408059274</v>
+        <v>916.1432083876384</v>
       </c>
       <c r="N15" t="n">
-        <v>1880.58538792333</v>
+        <v>916.1432083876384</v>
       </c>
       <c r="O15" t="n">
-        <v>1880.58538792333</v>
+        <v>1805.62448639911</v>
       </c>
       <c r="P15" t="n">
-        <v>1880.58538792333</v>
+        <v>1805.62448639911</v>
       </c>
       <c r="Q15" t="n">
-        <v>1880.58538792333</v>
+        <v>1805.62448639911</v>
       </c>
       <c r="R15" t="n">
         <v>1880.58538792333</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1155.078879867057</v>
+        <v>343.015436205311</v>
       </c>
       <c r="C16" t="n">
-        <v>983.1063167459732</v>
+        <v>171.042873084227</v>
       </c>
       <c r="D16" t="n">
-        <v>819.7895438727439</v>
+        <v>171.042873084227</v>
       </c>
       <c r="E16" t="n">
-        <v>653.5813380255975</v>
+        <v>171.042873084227</v>
       </c>
       <c r="F16" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G16" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H16" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I16" t="n">
         <v>71.89775734282044</v>
@@ -5463,25 +5463,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S16" t="n">
-        <v>2252.310784755949</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T16" t="n">
-        <v>2252.310784755949</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U16" t="n">
-        <v>2252.310784755949</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="V16" t="n">
-        <v>2089.003917271063</v>
+        <v>1276.940473609317</v>
       </c>
       <c r="W16" t="n">
-        <v>1814.151513443576</v>
+        <v>1002.08806978183</v>
       </c>
       <c r="X16" t="n">
-        <v>1571.587616889381</v>
+        <v>759.5241732276346</v>
       </c>
       <c r="Y16" t="n">
-        <v>1345.244848579123</v>
+        <v>533.1814049173767</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261615</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988729</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883215</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5515,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2036.213862444163</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N17" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747412</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.49385590534</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5585,34 +5585,34 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M18" t="n">
-        <v>102.3027134058285</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="N18" t="n">
-        <v>1191.617659878698</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1836.029442462118</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1836.029442462118</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,49 +5740,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291425</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291425</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5822,7 +5822,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
         <v>102.3027134058285</v>
@@ -5840,13 +5840,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>850.194499935752</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886055</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631659</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573981</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1844.556469506584</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1844.556469506584</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1844.556469506584</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259876</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775161</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048099</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731003</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948607</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710917</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710917</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710917</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710917</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710917</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>4025.820723818556</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>5115.135670291425</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291425</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291425</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291425</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291425</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.81142285268</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.931487150358</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069995</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209262</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042479</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809142</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162434</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>850.194499935752</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886055</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631659</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573981</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>2119.40887333407</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,19 +6214,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
         <v>1180.414480198223</v>
@@ -6235,28 +6235,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>3114.325629236558</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N26" t="n">
-        <v>4090.576687723259</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O26" t="n">
-        <v>4935.721337874071</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>2001.004273426986</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,19 +6451,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
         <v>1180.414480198223</v>
@@ -6472,28 +6472,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2988.069926596601</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596601</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1085.715267670341</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6621,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>2019.640305074347</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1744.78790124686</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1502.224004692665</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1275.881236382407</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,19 +6688,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
         <v>1180.414480198223</v>
@@ -6709,28 +6709,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2110.0395278175</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3086.290586304201</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>3931.435236455013</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>4639.71451561294</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6858,10 +6858,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
         <v>435.0679631883225</v>
@@ -6937,43 +6937,43 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O35" t="n">
-        <v>4659.050190787243</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787243</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
         <v>3777.607131232208</v>
@@ -7013,25 +7013,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>964.4851292537592</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M36" t="n">
-        <v>964.4851292537592</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N36" t="n">
-        <v>964.4851292537592</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O36" t="n">
-        <v>964.4851292537592</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
         <v>1364.825557038856</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>2002.531292319261</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>2002.531292319261</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1727.678888491774</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N38" t="n">
-        <v>3950.770911629314</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629314</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787242</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291425</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7250,28 +7250,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
         <v>1828.971033901635</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1774.334459486316</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C41" t="n">
-        <v>1657.418872161465</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D41" t="n">
-        <v>1234.126251346466</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E41" t="n">
-        <v>1234.126251346466</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F41" t="n">
-        <v>809.0020695358658</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6630071253144</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H41" t="n">
-        <v>106.7946285993492</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I41" t="n">
-        <v>71.89775734282046</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J41" t="n">
-        <v>71.89775734282046</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K41" t="n">
-        <v>787.4060653183195</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L41" t="n">
-        <v>787.4060653183195</v>
+        <v>1540.788361361508</v>
       </c>
       <c r="M41" t="n">
-        <v>1677.140812435723</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="N41" t="n">
-        <v>2430.523108478912</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="O41" t="n">
-        <v>2430.523108478912</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P41" t="n">
-        <v>3138.802387636839</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q41" t="n">
-        <v>3594.887867141023</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R41" t="n">
-        <v>3594.887867141023</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S41" t="n">
-        <v>3490.520573014163</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T41" t="n">
-        <v>3269.595002058796</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U41" t="n">
-        <v>3011.240092655208</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V41" t="n">
-        <v>3011.240092655208</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W41" t="n">
-        <v>3011.240092655208</v>
+        <v>3414.436925386706</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.520093822955</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y41" t="n">
-        <v>2194.182823777846</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>125.2738505805109</v>
       </c>
       <c r="H42" t="n">
-        <v>71.89775734282046</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I42" t="n">
-        <v>71.89775734282046</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J42" t="n">
-        <v>71.89775734282046</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K42" t="n">
-        <v>71.89775734282046</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L42" t="n">
-        <v>71.89775734282046</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="M42" t="n">
-        <v>908.8313307212239</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="N42" t="n">
-        <v>1798.566077838627</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="O42" t="n">
-        <v>1798.566077838627</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="P42" t="n">
-        <v>1798.566077838627</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q42" t="n">
         <v>1798.566077838627</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>466.1118703733493</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C43" t="n">
-        <v>294.1393072522653</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D43" t="n">
-        <v>130.822534379036</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E43" t="n">
-        <v>71.89775734282046</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F43" t="n">
-        <v>71.89775734282046</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G43" t="n">
-        <v>71.89775734282046</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H43" t="n">
-        <v>71.89775734282046</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I43" t="n">
-        <v>71.89775734282046</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J43" t="n">
         <v>129.3890855669785</v>
@@ -7593,28 +7593,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R43" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S43" t="n">
-        <v>2205.272171443122</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T43" t="n">
-        <v>1961.932823669022</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U43" t="n">
-        <v>1681.748375169326</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V43" t="n">
-        <v>1400.036907777355</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W43" t="n">
-        <v>1125.184503949868</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X43" t="n">
-        <v>882.6206073956729</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y43" t="n">
-        <v>656.2778390854149</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1020.453694912913</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C44" t="n">
-        <v>809.0020695358658</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D44" t="n">
-        <v>809.0020695358658</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E44" t="n">
-        <v>809.0020695358658</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F44" t="n">
-        <v>809.0020695358658</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6630071253144</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H44" t="n">
-        <v>106.7946285993492</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I44" t="n">
-        <v>71.89775734282046</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J44" t="n">
-        <v>71.89775734282046</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K44" t="n">
-        <v>787.4060653183195</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L44" t="n">
-        <v>1034.172855832977</v>
+        <v>1151.729190714879</v>
       </c>
       <c r="M44" t="n">
-        <v>1923.90760295038</v>
+        <v>1151.729190714879</v>
       </c>
       <c r="N44" t="n">
-        <v>1923.90760295038</v>
+        <v>2041.463937832282</v>
       </c>
       <c r="O44" t="n">
-        <v>2769.052253101192</v>
+        <v>2886.608587983094</v>
       </c>
       <c r="P44" t="n">
-        <v>3477.33153225912</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q44" t="n">
-        <v>3477.33153225912</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R44" t="n">
-        <v>3594.887867141023</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S44" t="n">
-        <v>3490.520573014163</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T44" t="n">
-        <v>3269.595002058796</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U44" t="n">
-        <v>3011.240092655208</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V44" t="n">
-        <v>2653.750677781458</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W44" t="n">
-        <v>2257.359328081805</v>
+        <v>3414.436925386706</v>
       </c>
       <c r="X44" t="n">
-        <v>1845.639329249552</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y44" t="n">
-        <v>1440.302059204443</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>125.2738505805109</v>
       </c>
       <c r="H45" t="n">
-        <v>71.89775734282046</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I45" t="n">
-        <v>71.89775734282046</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J45" t="n">
-        <v>343.5952466224115</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K45" t="n">
-        <v>934.0801731907511</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L45" t="n">
-        <v>934.0801731907511</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="M45" t="n">
-        <v>934.0801731907511</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="N45" t="n">
-        <v>934.0801731907511</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="O45" t="n">
-        <v>934.0801731907511</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="P45" t="n">
-        <v>1416.439911060551</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q45" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R45" t="n">
         <v>1880.58538792333</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.1504836861761</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C46" t="n">
-        <v>341.1779205650921</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D46" t="n">
-        <v>341.1779205650921</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E46" t="n">
-        <v>341.1779205650921</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F46" t="n">
-        <v>238.1547270485883</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G46" t="n">
-        <v>71.89775734282046</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H46" t="n">
-        <v>71.89775734282046</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I46" t="n">
-        <v>71.89775734282046</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J46" t="n">
         <v>129.3890855669785</v>
@@ -7833,25 +7833,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S46" t="n">
-        <v>2252.310784755949</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T46" t="n">
-        <v>2008.971436981848</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U46" t="n">
-        <v>1728.786988482153</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V46" t="n">
-        <v>1447.075521090182</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W46" t="n">
-        <v>1172.223117262695</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X46" t="n">
-        <v>929.6592207084997</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y46" t="n">
-        <v>703.3164523982417</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49310412327424</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>937.0340092178783</v>
       </c>
       <c r="M2" t="n">
-        <v>936.1532296846872</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>936.0015896197015</v>
       </c>
       <c r="O2" t="n">
-        <v>891.0724241548241</v>
+        <v>256.1307554008616</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8066,22 +8066,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>921.8187472975834</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>920.064994998797</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>52.685158758287</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>758.5002654165255</v>
@@ -8227,16 +8227,16 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>936.0015896197015</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>294.0536105308456</v>
       </c>
       <c r="Q5" t="n">
-        <v>220.8394800966024</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8303,19 +8303,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>921.8187472975834</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>920.064994998797</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>52.685158758287</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>481.4282914131709</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
-        <v>937.0340092178783</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>936.1532296846872</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>936.0015896197015</v>
+        <v>358.3024504212951</v>
       </c>
       <c r="O8" t="n">
-        <v>781.0571548753067</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8546,10 +8546,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>530.2476341400729</v>
+        <v>126.4645803159202</v>
       </c>
       <c r="P9" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>937.0340092178783</v>
+        <v>478.0786426274547</v>
       </c>
       <c r="M11" t="n">
-        <v>936.1532296846872</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>936.0015896197015</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.85317793306304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>44.49310412327424</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>937.0340092178783</v>
       </c>
       <c r="M14" t="n">
-        <v>936.1532296846872</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>936.0015896197015</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>37.86171155375327</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9011,16 +9011,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>52.02835575029422</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>921.8187472975834</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>920.064994998797</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9029,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>99.39100174184128</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>866.4310157363752</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9248,22 +9248,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>749.8109645784242</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>98.46512063667564</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286654</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,16 +9488,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>26.37892716579976</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>398.9108788555778</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9892,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>100.0581876036175</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,13 +10120,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>924.3306556055946</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>227.574314522856</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
@@ -10205,16 +10205,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>54.56363491934506</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,19 +10594,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>883.9207714806259</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>611.6066190166146</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
@@ -10670,7 +10670,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10682,7 +10682,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>426.1551116948253</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>765.1769988726438</v>
       </c>
       <c r="N38" t="n">
-        <v>882.1738474735944</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
@@ -10916,13 +10916,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>896.3899752251272</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>433.0381406409993</v>
       </c>
       <c r="M41" t="n">
-        <v>936.1532296846874</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N41" t="n">
-        <v>798.2718410598894</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>37.3909593560241</v>
@@ -11135,31 +11135,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>868.4842283693013</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>920.0649949987973</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>287.5714267908627</v>
+        <v>40.04907938177816</v>
       </c>
       <c r="M44" t="n">
-        <v>936.1532296846874</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11320,7 +11320,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
@@ -11390,16 +11390,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>420.03429863453</v>
       </c>
       <c r="P45" t="n">
-        <v>509.0028996591719</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22549,7 +22549,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22561,10 +22561,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>68.87388578428772</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22600,7 +22600,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -22609,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>363.7801171498768</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22710,13 +22710,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>110.0981677402027</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -22752,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>8.40772601095955</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>191.7740072563754</v>
       </c>
     </row>
     <row r="6">
@@ -22947,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,16 +22992,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23023,25 +23023,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>351.6525275954389</v>
+        <v>71.85106175401972</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23184,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>71.98949189919269</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,16 +23229,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>339.2778588153457</v>
       </c>
       <c r="G11" t="n">
-        <v>50.49266956858577</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.098167740203</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>39.58415153332317</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>206.139990560332</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>71.98949189919269</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>113.008962604416</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -23901,10 +23901,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
-        <v>22.13019988286445</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>117.2205539080138</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24888,16 +24888,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>18.44967133088738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>115.7088052046617</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>306.8852912352309</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>213.7810038658839</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>106.2105945228216</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>213.2946135635565</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>213.7810038658839</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>68.15019490184643</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>544871.1716848487</v>
+        <v>544871.1716848486</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>544871.1716848488</v>
+        <v>544871.1716848487</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>688752.597162921</v>
+        <v>688752.5971629209</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>688752.597162921</v>
+        <v>688752.5971629209</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>544871.1716848488</v>
+        <v>544871.1716848487</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>544871.1716848488</v>
+        <v>544871.1716848487</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>244543.6550785646</v>
+        <v>244543.6550785647</v>
       </c>
       <c r="C2" t="n">
-        <v>244543.6550785646</v>
+        <v>244543.6550785647</v>
       </c>
       <c r="D2" t="n">
         <v>244543.6550785647</v>
       </c>
       <c r="E2" t="n">
-        <v>244543.6550785646</v>
+        <v>244543.6550785647</v>
       </c>
       <c r="F2" t="n">
-        <v>244543.6550785646</v>
+        <v>244543.6550785647</v>
       </c>
       <c r="G2" t="n">
-        <v>309116.7217255959</v>
+        <v>309116.721725596</v>
       </c>
       <c r="H2" t="n">
         <v>309116.7217255959</v>
@@ -26337,16 +26337,16 @@
         <v>309116.721725596</v>
       </c>
       <c r="J2" t="n">
+        <v>309116.721725596</v>
+      </c>
+      <c r="K2" t="n">
+        <v>309116.721725596</v>
+      </c>
+      <c r="L2" t="n">
         <v>309116.7217255959</v>
       </c>
-      <c r="K2" t="n">
-        <v>309116.7217255959</v>
-      </c>
-      <c r="L2" t="n">
-        <v>309116.721725596</v>
-      </c>
       <c r="M2" t="n">
-        <v>309116.7217255959</v>
+        <v>309116.7217255961</v>
       </c>
       <c r="N2" t="n">
         <v>309116.721725596</v>
@@ -26355,7 +26355,7 @@
         <v>244543.6550785647</v>
       </c>
       <c r="P2" t="n">
-        <v>244543.6550785647</v>
+        <v>244543.6550785648</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>104169.2797816196</v>
+        <v>104169.2797816197</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>235145.2102775614</v>
+        <v>235145.2102775613</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>11941.75496939596</v>
       </c>
       <c r="G4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="H4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="I4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="K4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="L4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="M4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="N4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="O4" t="n">
-        <v>11941.75496939597</v>
+        <v>11941.75496939596</v>
       </c>
       <c r="P4" t="n">
-        <v>11941.75496939597</v>
+        <v>11941.75496939596</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>54642.29558054353</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>54642.29558054354</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="P5" t="n">
-        <v>54642.29558054354</v>
+        <v>54642.29558054353</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-156850.39714635</v>
+        <v>-157194.9417478389</v>
       </c>
       <c r="C6" t="n">
-        <v>144332.0045286251</v>
+        <v>143987.4599271362</v>
       </c>
       <c r="D6" t="n">
-        <v>144332.0045286252</v>
+        <v>143987.4599271362</v>
       </c>
       <c r="E6" t="n">
-        <v>177959.6045286251</v>
+        <v>177615.0599271363</v>
       </c>
       <c r="F6" t="n">
-        <v>177959.6045286251</v>
+        <v>177615.0599271362</v>
       </c>
       <c r="G6" t="n">
-        <v>112081.2060976192</v>
+        <v>112030.1754354349</v>
       </c>
       <c r="H6" t="n">
-        <v>216250.4858792389</v>
+        <v>216199.4552170545</v>
       </c>
       <c r="I6" t="n">
-        <v>216250.4858792389</v>
+        <v>216199.4552170546</v>
       </c>
       <c r="J6" t="n">
-        <v>-18894.72439832258</v>
+        <v>-18945.75506050674</v>
       </c>
       <c r="K6" t="n">
-        <v>216250.4858792388</v>
+        <v>216199.4552170546</v>
       </c>
       <c r="L6" t="n">
-        <v>216250.4858792389</v>
+        <v>216199.4552170545</v>
       </c>
       <c r="M6" t="n">
-        <v>216250.4858792388</v>
+        <v>216199.4552170546</v>
       </c>
       <c r="N6" t="n">
-        <v>216250.4858792389</v>
+        <v>216199.4552170546</v>
       </c>
       <c r="O6" t="n">
-        <v>177959.6045286252</v>
+        <v>177615.0599271363</v>
       </c>
       <c r="P6" t="n">
-        <v>177959.6045286252</v>
+        <v>177615.0599271363</v>
       </c>
     </row>
   </sheetData>
@@ -26804,13 +26804,13 @@
         <v>898.7219667852554</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="J4" t="n">
         <v>1278.783917572857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>898.7219667852556</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="P4" t="n">
-        <v>898.7219667852556</v>
+        <v>898.7219667852554</v>
       </c>
     </row>
   </sheetData>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>380.0619507876009</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>898.7219667852557</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>380.0619507876009</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>8.728503328464901</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>898.7219667852554</v>
       </c>
       <c r="M2" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>898.7219667852554</v>
       </c>
       <c r="O2" t="n">
-        <v>853.6814647988001</v>
+        <v>218.7397960448375</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34786,22 +34786,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>29.51326903606477</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>722.7356646217162</v>
@@ -34947,16 +34947,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>256.4782487206143</v>
       </c>
       <c r="Q5" t="n">
-        <v>184.7148054920043</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>29.51326903606477</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>898.7219667852554</v>
+        <v>321.0228275868491</v>
       </c>
       <c r="O8" t="n">
-        <v>743.6661955192825</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>507.0757444178507</v>
+        <v>103.292690593698</v>
       </c>
       <c r="P9" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>898.7219667852554</v>
+        <v>439.7666001948318</v>
       </c>
       <c r="M11" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>8.728503328465001</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>8.728503328464901</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>898.7219667852554</v>
       </c>
       <c r="M14" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1.737036949155233</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>29.51326903606467</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>75.71808234769713</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>829.0400563803511</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>726.639074856202</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>75.71808234769713</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.492718418434</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>361.4796159561459</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36612,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>62.4828257933862</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,13 +36840,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>886.8993927061629</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P29" t="n">
         <v>715.433615311038</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>19.53098502454859</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,19 +37314,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811942</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>574.2156596605904</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
@@ -37390,7 +37390,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>404.3842704899966</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>727.745735973212</v>
       </c>
       <c r="N38" t="n">
-        <v>844.8942246391483</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
@@ -37636,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>873.218085502905</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>82.84778796434657</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>394.7260982083764</v>
       </c>
       <c r="M41" t="n">
-        <v>898.7219667852556</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N41" t="n">
-        <v>760.9922182254434</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>845.3874478569733</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>898.7219667852556</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>82.84778796434657</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>249.2593843582398</v>
+        <v>1.737036949155233</v>
       </c>
       <c r="M44" t="n">
-        <v>898.7219667852556</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38040,7 +38040,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="P45" t="n">
-        <v>487.2320584543432</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
